--- a/Robot_2016/Help/FunctionChecklist.xlsx
+++ b/Robot_2016/Help/FunctionChecklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Class of 2016\BACHRAN000\RoboticsDocumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Class of 2019\GATLEKYL000\WORKSPACE\Robot_2016\Robot_2016\Help\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>Function</t>
   </si>
@@ -270,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -293,33 +293,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,35 +937,39 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -959,107 +978,115 @@
       <c r="D2" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="11">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>50</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>